--- a/06_look-back/振り返りレビュー議事録_第2反復.xlsx
+++ b/06_look-back/振り返りレビュー議事録_第2反復.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FDE96A-7366-4A43-B495-9781B5CD9783}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F6C9A-386B-470D-9167-42CC822518D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="12180" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -494,31 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第一反復のTryから第二反復の振り返りを行いたい。</t>
-    <rPh sb="0" eb="2">
-      <t>ダイイチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ダイニ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>振り返りは第一反復から行うようにする。</t>
     <rPh sb="0" eb="1">
       <t>フ</t>
@@ -675,6 +650,31 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一反復のTryから第二反復の振り返りを行ってほしい。</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1062,6 +1062,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1072,42 +1108,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1572,10 +1572,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1584,10 +1584,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1596,64 +1596,64 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1662,22 +1662,22 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1686,10 +1686,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1698,56 +1698,56 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
     </row>
@@ -1762,17 +1762,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A21:B21"/>
@@ -1785,6 +1774,17 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1804,8 +1804,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1853,16 +1853,16 @@
         <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1884,8 +1884,8 @@
       <c r="F3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>58</v>
+      <c r="G3" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1899,16 +1899,16 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1928,10 +1928,10 @@
         <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1945,16 +1945,16 @@
         <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1974,10 +1974,10 @@
         <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2398,10 +2398,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2410,10 +2410,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
@@ -2423,66 +2423,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="26"/>
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2491,10 +2491,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="13" t="s">
         <v>32</v>
       </c>
@@ -2503,10 +2503,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
@@ -2515,10 +2515,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="13" t="s">
         <v>32</v>
       </c>
@@ -2527,44 +2527,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2579,6 +2579,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2588,18 +2600,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2615,6 +2615,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2798,22 +2813,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2829,21 +2846,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>